--- a/LLM_PublicHouseAllocation/experiments/PHA_51tenant_5community_28house/choosed/utility_eval_matrix.xlsx
+++ b/LLM_PublicHouseAllocation/experiments/PHA_51tenant_5community_28house/choosed/utility_eval_matrix.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,34 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -453,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,43 +434,277 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type_indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>eval_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ex_name</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>indicator_values</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+          <t>3&gt;=family_num&gt;=2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>family_num=1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>family_num&gt;3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_house_distribution_len</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_house_distribution_step</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_tenant_distribution_len</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>distribution_batch_tenant_distribution_step</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>environment_max_turns</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>order_type</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>order_waitlist_ratio</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>order_k</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>policy_type</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_type</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_priority</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tenant_max_choose</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>community_patch_method</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_portion_settings</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>group_policy_portion_attribute</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>3&gt;=family_num&gt;=2</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>family_num=1</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>family_num&gt;3</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>least_misery</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Fairness</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Fairness</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.589166666666665</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2399999999999997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.841874999999998</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.763877551020407</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -512,22 +718,69 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>0.4219728129478107</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3</v>
+        <v>0.285449990364232</v>
       </c>
       <c r="F4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.4</v>
-      </c>
+        <v>0.2788308858276093</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -541,27 +794,74 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.589166666666665</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2399999999999997</v>
+        <v>0.9272727272727274</v>
       </c>
       <c r="F5" t="n">
-        <v>3.841874999999998</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.763877551020407</v>
-      </c>
+        <v>0.6624203821656052</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -570,20 +870,71 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4219728129478107</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.285449990364232</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2788308858276093</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>49.90000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -596,26 +947,71 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.6611111111111111</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9272727272727274</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6624203821656052</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.9250000000000008</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -623,23 +1019,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>49.90000000000001</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>205.2</v>
-      </c>
+        <v>0.0853522695627958</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -649,20 +1088,75 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
       <c r="G9" t="n">
-        <v>0.9250000000000008</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -672,20 +1166,75 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_2t_2h(step_num(t5_h5))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.381265432098765</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8495999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.317600000000001</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.0853522695627958</v>
-      </c>
+        <v>3.790446428571428</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -699,22 +1248,69 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.4</v>
+        <v>0.6360901027708089</v>
       </c>
       <c r="E11" t="n">
-        <v>15.5</v>
+        <v>0.1780036185856719</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9</v>
-      </c>
+        <v>0.1709725044218035</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -728,27 +1324,74 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.381265432098765</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8495999999999999</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F12" t="n">
-        <v>8.317600000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.790446428571428</v>
-      </c>
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -757,20 +1400,71 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6360901027708089</v>
+        <v>269.3</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1780036185856719</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1709725044218035</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>68.40000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>419.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -783,26 +1477,71 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>-1.204761904761906</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -810,23 +1549,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F15" t="n">
-        <v>68.40000000000001</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>419.3</v>
-      </c>
+        <v>0.0698528159176858</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -836,20 +1618,75 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.8</v>
+      </c>
       <c r="G16" t="n">
-        <v>-1.204761904761906</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -859,20 +1696,75 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.298541666666668</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.7505</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.525</v>
+      </c>
       <c r="G17" t="n">
-        <v>0.0698528159176858</v>
-      </c>
+        <v>6.222366863905327</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -886,22 +1778,69 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10.6</v>
+        <v>0.4555007503444108</v>
       </c>
       <c r="E18" t="n">
-        <v>13.4</v>
+        <v>0.3819539573849322</v>
       </c>
       <c r="F18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0.1399609493560467</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -915,27 +1854,74 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.298541666666668</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="E19" t="n">
-        <v>1.7505</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="F19" t="n">
-        <v>14.525</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.222366863905327</v>
-      </c>
+        <v>0.3694267515923567</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -944,20 +1930,71 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4555007503444108</v>
+        <v>189.3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3819539573849322</v>
+        <v>158.5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1399609493560467</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>48.40000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>396.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -970,26 +2007,71 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.5888888888888889</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.7444444444444445</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3694267515923567</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>-0.194202898550726</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -997,23 +2079,66 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>189.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>48.40000000000001</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>396.2</v>
-      </c>
+        <v>0.07740845726711471</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1023,20 +2148,81 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.9</v>
+      </c>
       <c r="G23" t="n">
-        <v>-0.194202898550726</v>
+        <v>11.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1046,20 +2232,81 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_nopriority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9527272727272732</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0976</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.78984375</v>
+      </c>
       <c r="G24" t="n">
-        <v>0.07740845726711471</v>
+        <v>1.654149305555556</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1073,22 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.8</v>
+        <v>0.4566339286556659</v>
       </c>
       <c r="E25" t="n">
-        <v>14.4</v>
+        <v>0.2074304831696095</v>
       </c>
       <c r="F25" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11.9</v>
+        <v>0.3305718200771054</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1102,27 +2402,80 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9527272727272732</v>
+        <v>0.7840909090909091</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0976</v>
+        <v>0.8228571428571428</v>
       </c>
       <c r="F26" t="n">
-        <v>1.78984375</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.654149305555556</v>
+        <v>0.7345679012345679</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1131,20 +2484,77 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.4566339286556659</v>
+        <v>176</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2074304831696095</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3305718200771054</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>117.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1157,26 +2567,77 @@
           <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0.7840909090909091</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.8228571428571428</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.7345679012345679</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.3950000000000013</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -1184,23 +2645,72 @@
           <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>176</v>
-      </c>
-      <c r="E29" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F29" t="n">
-        <v>117.1</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>372.5</v>
+        <v>0.0465548098434002</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>monthly_rent_budget</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1210,20 +2720,75 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
       <c r="G30" t="n">
-        <v>0.3950000000000013</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1233,20 +2798,75 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.5)_portion(f_rent_money_budget)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.244897959183674</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.107438016528926</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" t="n">
-        <v>0.0465548098434002</v>
-      </c>
+        <v>1.130315500685871</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1260,22 +2880,69 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>0.3976761074800291</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4</v>
-      </c>
+        <v>0.074074074074074</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1289,27 +2956,74 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.244897959183674</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1.107438016528926</v>
+        <v>0.625</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.130315500685871</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -1318,20 +3032,71 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5033557046979866</v>
+        <v>90</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3976761074800291</v>
+        <v>74</v>
       </c>
       <c r="F34" t="n">
-        <v>0.074074074074074</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="G34" t="n">
+        <v>178</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1344,26 +3109,71 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>-0.2363636363636363</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -1371,23 +3181,66 @@
           <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>90</v>
-      </c>
-      <c r="E36" t="n">
-        <v>74</v>
-      </c>
-      <c r="F36" t="n">
-        <v>14</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>178</v>
-      </c>
+        <v>0.08905534748231381</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>multi_list</t>
+        </is>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1397,20 +3250,75 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>11.6</v>
+      </c>
       <c r="G37" t="n">
-        <v>-0.2363636363636363</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1420,20 +3328,75 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_multilist_priority_8t_6h_p#housetype</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4.00728888888889</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.589166666666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.554285714285714</v>
+      </c>
       <c r="G38" t="n">
-        <v>0.08905534748231381</v>
-      </c>
+        <v>3.291670918367348</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1447,22 +3410,69 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.7</v>
+        <v>0.5257037693650931</v>
       </c>
       <c r="E39" t="n">
-        <v>13.4</v>
+        <v>0.2129554533490208</v>
       </c>
       <c r="F39" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0.2480876852554908</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1476,27 +3486,74 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.00728888888889</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="E40" t="n">
-        <v>1.589166666666666</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="F40" t="n">
-        <v>1.554285714285714</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.291670918367348</v>
-      </c>
+        <v>0.7388535031847134</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -1505,20 +3562,71 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5257037693650931</v>
+        <v>217.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2129554533490208</v>
+        <v>95.7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2480876852554908</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>412.6999999999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1531,26 +3639,71 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0.5944444444444444</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7657142857142857</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.7388535031847134</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>-0.6565217391304348</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
@@ -1558,23 +3711,66 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>217.6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>99.40000000000001</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>412.6999999999999</v>
-      </c>
+        <v>0.0699747308664195</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1584,20 +3780,83 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15.7</v>
+      </c>
       <c r="G44" t="n">
-        <v>-0.6565217391304348</v>
+        <v>13.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1607,20 +3866,83 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1.227397959183674</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.142040816326531</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2225000000000003</v>
+      </c>
       <c r="G45" t="n">
-        <v>0.0699747308664195</v>
+        <v>1.158144000000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1634,22 +3956,77 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>14.2</v>
+        <v>0.5573677919136492</v>
       </c>
       <c r="E46" t="n">
-        <v>13.6</v>
+        <v>0.2786531565139954</v>
       </c>
       <c r="F46" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="G46" t="n">
-        <v>13.6</v>
+        <v>0.1598636250454902</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1663,27 +4040,82 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.227397959183674</v>
+        <v>0.7888888888888889</v>
       </c>
       <c r="E47" t="n">
-        <v>1.142040816326531</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2225000000000003</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.158144000000001</v>
+        <v>0.9345238095238094</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
@@ -1692,20 +4124,79 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5573677919136492</v>
+        <v>225.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2786531565139954</v>
+        <v>107.6</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1598636250454902</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>397.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1718,26 +4209,79 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0.7888888888888889</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.9345238095238094</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.2000000000000046</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
@@ -1745,23 +4289,74 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="E50" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="F50" t="n">
-        <v>64.59999999999999</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>397.9</v>
+        <v>0.0395074139230962</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1771,20 +4366,75 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="G51" t="n">
-        <v>0.2000000000000046</v>
-      </c>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1794,20 +4444,75 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#portion_rent_money</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.648125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.004897959183674</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.8264</v>
+      </c>
       <c r="G52" t="n">
-        <v>0.0395074139230962</v>
-      </c>
+        <v>2.953099489795918</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1821,22 +4526,69 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>12.4</v>
+        <v>0.567420524937056</v>
       </c>
       <c r="E53" t="n">
-        <v>13.2</v>
+        <v>0.2469229946175393</v>
       </c>
       <c r="F53" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G53" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>0.1735289311816462</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1850,27 +4602,74 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.648125</v>
+        <v>0.7209302325581396</v>
       </c>
       <c r="E54" t="n">
-        <v>3.004897959183674</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F54" t="n">
-        <v>5.8264</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.953099489795918</v>
-      </c>
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
@@ -1879,20 +4678,71 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.567420524937056</v>
+        <v>244.4</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2469229946175393</v>
+        <v>108.7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1735289311816462</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>70.8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>423.8999999999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1905,26 +4755,71 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>0.7209302325581396</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>-0.2426086956521729</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -1932,23 +4827,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="E57" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>70.8</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>423.8999999999999</v>
-      </c>
+        <v>0.0623209651872073</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1958,20 +4896,83 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14.4</v>
+      </c>
       <c r="G58" t="n">
-        <v>-0.2426086956521729</v>
+        <v>12.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -1981,20 +4982,83 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_nopriority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2.3525</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.7544</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
       <c r="G59" t="n">
-        <v>0.0623209651872073</v>
+        <v>2.125555555555556</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -2008,22 +5072,77 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12.2</v>
+        <v>0.6596298373527761</v>
       </c>
       <c r="E60" t="n">
-        <v>13.4</v>
+        <v>0.2757274364281987</v>
       </c>
       <c r="F60" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G60" t="n">
-        <v>12.2</v>
+        <v>0.0555555555555555</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R60" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -2037,27 +5156,82 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.3525</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="E61" t="n">
-        <v>1.7544</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2.125555555555556</v>
+        <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>10</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
@@ -2066,20 +5240,79 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.6596298373527761</v>
+        <v>178.2</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2757274364281987</v>
+        <v>76.8</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0555555555555555</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
@@ -2092,26 +5325,79 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>0.7176470588235294</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.788235294117647</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>-0.5812500000000007</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
@@ -2119,23 +5405,74 @@
           <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="E64" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>269.4</v>
+        <v>0.0580301905468942</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>random_avg</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>[0.2, 0.3, 0.3, 0.2]</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>family_members_num</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -2145,20 +5482,73 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.9</v>
+      </c>
       <c r="G65" t="n">
-        <v>-0.5812500000000007</v>
-      </c>
+        <v>10.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2168,20 +5558,73 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_multilist(1.2)_portion(f_member_num)_priority_8t_6h_p#random_avg</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>4.332071005917159</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.49609375</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.681224489795918</v>
+      </c>
       <c r="G66" t="n">
-        <v>0.0580301905468942</v>
-      </c>
+        <v>3.588201530612245</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2195,22 +5638,67 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10.6</v>
+        <v>0.4554174962098216</v>
       </c>
       <c r="E67" t="n">
-        <v>14</v>
+        <v>0.2840922566109332</v>
       </c>
       <c r="F67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G67" t="n">
-        <v>10.6</v>
-      </c>
+        <v>0.246802432273773</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2224,27 +5712,72 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4.332071005917159</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="E68" t="n">
-        <v>1.49609375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F68" t="n">
-        <v>2.681224489795918</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3.588201530612245</v>
-      </c>
+        <v>0.7345679012345679</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
@@ -2253,20 +5786,69 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4554174962098216</v>
+        <v>193.9</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2840922566109332</v>
+        <v>129.5</v>
       </c>
       <c r="F69" t="n">
-        <v>0.246802432273773</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>100.7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>424.1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2279,26 +5861,69 @@
           <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>0.6162790697674418</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.7345679012345679</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0.1857142857142886</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
@@ -2306,23 +5931,64 @@
           <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>100.7</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>424.1</v>
-      </c>
+        <v>0.0710496176777714</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2332,20 +5998,75 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>14.9</v>
+      </c>
       <c r="G72" t="n">
-        <v>0.1857142857142886</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>10</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R72" t="b">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -2355,20 +6076,75 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.8_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2.2136</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.728888888888889</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
       <c r="G73" t="n">
-        <v>0.0710496176777714</v>
-      </c>
+        <v>2.26320987654321</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2382,22 +6158,69 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>13.4</v>
+        <v>0.5504312679694987</v>
       </c>
       <c r="E74" t="n">
-        <v>13.4</v>
+        <v>0.3291576556358047</v>
       </c>
       <c r="F74" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G74" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R74" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2411,27 +6234,74 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.2136</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="E75" t="n">
-        <v>2.728888888888889</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.26320987654321</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>10</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
@@ -2440,20 +6310,71 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5504312679694987</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3291576556358047</v>
+        <v>44</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="G76" t="n">
+        <v>136</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>10</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R76" t="b">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -2466,50 +6387,142 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>0.7657142857142857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.788235294117647</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0.0669934640522874</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>10</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>77.09999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E78" t="n">
-        <v>44</v>
+        <v>13.4</v>
       </c>
       <c r="F78" t="n">
-        <v>14.9</v>
+        <v>9.5</v>
       </c>
       <c r="G78" t="n">
-        <v>136</v>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2519,20 +6532,73 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6.472857142857144</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.43609375</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5.236875</v>
+      </c>
       <c r="G79" t="n">
-        <v>0.0669934640522874</v>
-      </c>
+        <v>5.786331360946747</v>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2546,22 +6612,67 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10.6</v>
+        <v>0.5230061686012883</v>
       </c>
       <c r="E80" t="n">
-        <v>13.4</v>
+        <v>0.3060151797324259</v>
       </c>
       <c r="F80" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G80" t="n">
-        <v>9.5</v>
-      </c>
+        <v>0.1492393461730892</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>10</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -2575,27 +6686,72 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6.472857142857144</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="E81" t="n">
-        <v>1.43609375</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="F81" t="n">
-        <v>5.236875</v>
-      </c>
-      <c r="G81" t="n">
-        <v>5.786331360946747</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C82" s="1" t="inlineStr">
@@ -2604,20 +6760,69 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5230061686012883</v>
+        <v>207.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3060151797324259</v>
+        <v>129.5</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1492393461730892</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>52.1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>10</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -2630,26 +6835,69 @@
           <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>0.5888888888888889</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.7657142857142857</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>-0.0231884057971036</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>10</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
@@ -2657,23 +6905,64 @@
           <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="E84" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>52.1</v>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>388.8</v>
-      </c>
+        <v>0.0900898227287114</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>ver1</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>single_list</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -2683,20 +6972,75 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G85" t="n">
-        <v>-0.0231884057971036</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R85" t="b">
+        <v>1</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2706,20 +7050,75 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>ver1_nofilter_singlelist_1t_6h_p#singlelist</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4.838224852071005</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.273469387755101</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.809375</v>
+      </c>
       <c r="G86" t="n">
-        <v>0.0900898227287114</v>
-      </c>
+        <v>6.52891581632653</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R86" t="b">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -2733,22 +7132,69 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4535771517837826</v>
       </c>
       <c r="E87" t="n">
-        <v>11.6</v>
+        <v>0.245980386435743</v>
       </c>
       <c r="F87" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G87" t="n">
-        <v>6.8</v>
-      </c>
+        <v>0.2740161180995322</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>10</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R87" t="b">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2762,27 +7208,74 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4.838224852071005</v>
+        <v>0.5028571428571429</v>
       </c>
       <c r="E88" t="n">
-        <v>4.273469387755101</v>
+        <v>0.6444444444444444</v>
       </c>
       <c r="F88" t="n">
-        <v>7.809375</v>
-      </c>
-      <c r="G88" t="n">
-        <v>6.52891581632653</v>
-      </c>
+        <v>0.4197530864197531</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>10</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R88" t="b">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
@@ -2791,20 +7284,71 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.4535771517837826</v>
+        <v>186.1</v>
       </c>
       <c r="E89" t="n">
-        <v>0.245980386435743</v>
+        <v>113.2</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2740161180995322</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>108.2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>10</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R89" t="b">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2817,26 +7361,71 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>0.5028571428571429</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.6444444444444444</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.4197530864197531</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.4047619047619051</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>10</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R90" t="b">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C91" s="1" t="inlineStr">
@@ -2844,23 +7433,66 @@
           <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>108.2</v>
-      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>407.5</v>
-      </c>
+        <v>0.09441717791411031</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>8</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R91" t="b">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2870,20 +7502,75 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.4</v>
+      </c>
       <c r="G92" t="n">
-        <v>0.4047619047619051</v>
-      </c>
+        <v>8.4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>10</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R92" t="b">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -2893,20 +7580,75 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose3</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5.56109375</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.485306122448981</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.323999999999998</v>
+      </c>
       <c r="G93" t="n">
-        <v>0.09441717791411031</v>
-      </c>
+        <v>6.825344387755102</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>8</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>10</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R93" t="b">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2920,22 +7662,69 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.4</v>
+        <v>0.5570679694542157</v>
       </c>
       <c r="E94" t="n">
-        <v>13.2</v>
+        <v>0.2464055457054289</v>
       </c>
       <c r="F94" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G94" t="n">
-        <v>8.4</v>
-      </c>
+        <v>0.1682049598949744</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>10</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R94" t="b">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
@@ -2949,27 +7738,74 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5.56109375</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="E95" t="n">
-        <v>3.485306122448981</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F95" t="n">
-        <v>9.323999999999998</v>
-      </c>
-      <c r="G95" t="n">
-        <v>6.825344387755102</v>
-      </c>
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>8</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>10</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R95" t="b">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
@@ -2978,20 +7814,71 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.5570679694542157</v>
+        <v>235</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2464055457054289</v>
+        <v>108.2</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1682049598949744</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>61.49999999999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>10</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R96" t="b">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -3004,26 +7891,71 @@
           <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>0.5222222222222223</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.5121951219512195</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1.074999999999996</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>10</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R97" t="b">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
@@ -3031,23 +7963,66 @@
           <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>235</v>
-      </c>
-      <c r="E98" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>61.49999999999999</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>404.7</v>
-      </c>
+        <v>0.1017420311341733</v>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>10</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
@@ -3057,20 +8032,73 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.8</v>
+      </c>
       <c r="G99" t="n">
-        <v>1.074999999999996</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>10</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R99" t="b">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -3080,20 +8108,73 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.2_k1)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5.19125</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.795555555555555</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11.02916666666667</v>
+      </c>
       <c r="G100" t="n">
-        <v>0.1017420311341733</v>
-      </c>
+        <v>6.353099489795918</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>10</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R100" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
@@ -3107,22 +8188,67 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>10.6</v>
+        <v>0.5573772433107745</v>
       </c>
       <c r="E101" t="n">
-        <v>13.8</v>
+        <v>0.212835515511563</v>
       </c>
       <c r="F101" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G101" t="n">
-        <v>6.8</v>
-      </c>
+        <v>0.2030981440552174</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>10</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R101" t="b">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -3136,27 +8262,72 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5.19125</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="E102" t="n">
-        <v>1.795555555555555</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="F102" t="n">
-        <v>11.02916666666667</v>
-      </c>
-      <c r="G102" t="n">
-        <v>6.353099489795918</v>
-      </c>
+        <v>0.4197530864197531</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>10</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R102" t="b">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C103" s="1" t="inlineStr">
@@ -3165,20 +8336,69 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.5573772433107745</v>
+        <v>229.6</v>
       </c>
       <c r="E103" t="n">
-        <v>0.212835515511563</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2030981440552174</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>84.90000000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>411.9</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>8</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>10</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R103" t="b">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -3191,26 +8411,69 @@
           <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>0.5888888888888889</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.4197530864197531</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.0599999999999987</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>10</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R104" t="b">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
@@ -3218,23 +8481,64 @@
           <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="E105" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>84.90000000000001</v>
-      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>411.9</v>
-      </c>
+        <v>0.0896802275170808</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>10</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R105" t="b">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>F(W,G)</t>
+          <t>least_misery</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -3244,20 +8548,75 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.9</v>
+      </c>
       <c r="G106" t="n">
-        <v>0.0599999999999987</v>
-      </c>
+        <v>9.6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>8</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>10</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R106" t="b">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>GINI_index</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
@@ -3267,20 +8626,75 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>ver2_nofilter_multilist(1.5_k2)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose2</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5.34248888888889</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.028055555555556</v>
+      </c>
       <c r="G107" t="n">
-        <v>0.0896802275170808</v>
-      </c>
+        <v>3.921728395061729</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>10</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>3</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R107" t="b">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>least_misery</t>
+          <t>jain'sfair</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -3294,22 +8708,69 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9.6</v>
+        <v>0.5424778748545834</v>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>0.2215133794081162</v>
       </c>
       <c r="F108" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9.6</v>
-      </c>
+        <v>0.2212137091291281</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>10</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R108" t="b">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_max_ratio</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -3323,27 +8784,74 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5.34248888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E109" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F109" t="n">
-        <v>1.028055555555556</v>
-      </c>
-      <c r="G109" t="n">
-        <v>3.921728395061729</v>
-      </c>
+        <v>0.8273809523809523</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>8</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>10</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O109" t="n">
+        <v>3</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R109" t="b">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>jain'sfair</t>
+          <t>sw</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Satisfaction</t>
         </is>
       </c>
       <c r="C110" s="1" t="inlineStr">
@@ -3352,20 +8860,71 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.5424778748545834</v>
+        <v>223.3</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2215133794081162</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2212137091291281</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>413.3999999999999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>10</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R110" t="b">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>min_max_ratio</t>
+          <t>F(W,G)</t>
         </is>
       </c>
       <c r="B111" s="1" t="inlineStr">
@@ -3378,26 +8937,71 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.8273809523809523</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>-0.6785714285714253</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>10</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>3</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R111" t="b">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>sw</t>
+          <t>GINI_index</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
         <is>
-          <t>Satisfaction</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="C112" s="1" t="inlineStr">
@@ -3405,69 +9009,63 @@
           <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>100</v>
-      </c>
-      <c r="F112" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>413.3999999999999</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>F(W,G)</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>Fairness</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>-0.6785714285714253</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>GINI_index</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>Fairness</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>ver2_nofilter_multilist(1.2_k3)_housetype_priority_8t_6h(step_num(t1_h1))_p#housetype_choose1</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="n">
         <v>0.069719937644466</v>
       </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>10</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>kwaitlist</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>ver2</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="R112" t="b">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>house_type</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>